--- a/output7/【河洛白話注音-閩拼調號】《定風波》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《定風波》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835F5C37-C3E0-421F-A7CA-81B13A992B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51363EA7-A7E3-482C-95B9-B49A0321F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="1665">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4313,9 +4313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(13, 7)</t>
-  </si>
-  <si>
     <t>(21, 5)</t>
   </si>
   <si>
@@ -4331,13 +4328,7 @@
     <t>(21, 10)</t>
   </si>
   <si>
-    <t>(21, 12)</t>
-  </si>
-  <si>
     <t>(21, 13)</t>
-  </si>
-  <si>
-    <t>(21, 14)</t>
   </si>
   <si>
     <t>kak4</t>
@@ -4412,27 +4403,12 @@
     <t>(9, 9)</t>
   </si>
   <si>
-    <t>(9, 10)</t>
-  </si>
-  <si>
-    <t>(9, 12)</t>
-  </si>
-  <si>
-    <t>(9, 17)</t>
-  </si>
-  <si>
     <t>(13, 8)</t>
   </si>
   <si>
-    <t>(13, 9)</t>
-  </si>
-  <si>
     <t>(21, 9)</t>
   </si>
   <si>
-    <t>(21, 15)</t>
-  </si>
-  <si>
     <t>(21, 16)</t>
   </si>
   <si>
@@ -4445,21 +4421,12 @@
     <t>(33, 5)</t>
   </si>
   <si>
-    <t>(33, 6)</t>
-  </si>
-  <si>
     <t>(33, 8)</t>
   </si>
   <si>
-    <t>(33, 9)</t>
-  </si>
-  <si>
     <t>(33, 10)</t>
   </si>
   <si>
-    <t>(33, 12)</t>
-  </si>
-  <si>
     <t>(33, 13)</t>
   </si>
   <si>
@@ -4551,48 +4518,18 @@
     <t>(13, 5); (61, 6)</t>
   </si>
   <si>
-    <t>(45, 4)</t>
-  </si>
-  <si>
-    <t>(45, 6)</t>
-  </si>
-  <si>
-    <t>(45, 7); (57, 17)</t>
-  </si>
-  <si>
-    <t>(45, 9)</t>
-  </si>
-  <si>
-    <t>(45, 18)</t>
-  </si>
-  <si>
     <t>(49, 4)</t>
   </si>
   <si>
-    <t>(57, 4)</t>
-  </si>
-  <si>
-    <t>(57, 5)</t>
-  </si>
-  <si>
     <t>(57, 6)</t>
   </si>
   <si>
-    <t>(57, 7)</t>
-  </si>
-  <si>
     <t>(57, 8)</t>
   </si>
   <si>
     <t>(57, 9)</t>
   </si>
   <si>
-    <t>(57, 10)</t>
-  </si>
-  <si>
-    <t>(57, 12)</t>
-  </si>
-  <si>
     <t>be2</t>
   </si>
   <si>
@@ -4755,10 +4692,6 @@
     <t>mai3</t>
   </si>
   <si>
-    <t>mai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tann2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4796,22 +4729,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ng3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sio1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ggueh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dna3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sna1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4844,10 +4765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bbnai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tnia1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4908,10 +4825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sni1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cne3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4923,10 +4836,6 @@
     <t>cia2</t>
   </si>
   <si>
-    <t>cia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zio5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4936,10 +4845,6 @@
   </si>
   <si>
     <t>ggnia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ng5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5039,14 +4944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thio5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siunn1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5055,14 +4952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siu3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5086,282 +4975,6 @@
   </si>
   <si>
     <t>(57, 16)</t>
-  </si>
-  <si>
-    <t>(5, 4); (5, 4); (5, 4); (5, 4); (5, 4)</t>
-  </si>
-  <si>
-    <t>(5, 5); (5, 5); (5, 5); (5, 5); (5, 5)</t>
-  </si>
-  <si>
-    <t>(5, 7); (5, 7); (5, 7); (5, 7); (5, 7)</t>
-  </si>
-  <si>
-    <t>(5, 9); (5, 9); (5, 9); (5, 9); (5, 9)</t>
-  </si>
-  <si>
-    <t>(5, 10); (5, 10); (5, 10); (5, 10); (5, 10)</t>
-  </si>
-  <si>
-    <t>(5, 12); (5, 12); (5, 12); (5, 12); (5, 12)</t>
-  </si>
-  <si>
-    <t>(5, 18); (5, 18); (5, 18); (5, 18); (5, 18)</t>
-  </si>
-  <si>
-    <t>(9, 6); (9, 6); (9, 6); (9, 6); (9, 6)</t>
-  </si>
-  <si>
-    <t>(9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18)</t>
-  </si>
-  <si>
-    <t>(9, 9); (9, 9); (9, 9); (9, 9); (9, 9)</t>
-  </si>
-  <si>
-    <t>(9, 13); (9, 13); (9, 13); (9, 13); (9, 13)</t>
-  </si>
-  <si>
-    <t>(13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6)</t>
-  </si>
-  <si>
-    <t>(13, 8); (13, 8); (13, 8); (13, 8); (13, 8)</t>
-  </si>
-  <si>
-    <t>(21, 4); (21, 4); (21, 4); (21, 4); (21, 4)</t>
-  </si>
-  <si>
-    <t>(21, 5); (21, 5); (21, 5); (21, 5); (21, 5)</t>
-  </si>
-  <si>
-    <t>(21, 6); (21, 6); (21, 6); (21, 6); (21, 6)</t>
-  </si>
-  <si>
-    <t>(21, 7); (21, 7); (21, 7); (21, 7); (21, 7)</t>
-  </si>
-  <si>
-    <t>(21, 8); (21, 8); (21, 8); (21, 8); (21, 8)</t>
-  </si>
-  <si>
-    <t>(21, 9); (21, 9); (21, 9); (21, 9); (21, 9)</t>
-  </si>
-  <si>
-    <t>(21, 10); (21, 10); (21, 10); (21, 10); (21, 10)</t>
-  </si>
-  <si>
-    <t>(21, 13); (21, 13); (21, 13); (21, 13); (21, 13)</t>
-  </si>
-  <si>
-    <t>(21, 16); (21, 16); (21, 16); (21, 16); (21, 16)</t>
-  </si>
-  <si>
-    <t>(21, 17); (21, 17); (21, 17); (21, 17); (21, 17)</t>
-  </si>
-  <si>
-    <t>(33, 4); (33, 4); (33, 4); (33, 4); (33, 4)</t>
-  </si>
-  <si>
-    <t>(33, 5); (33, 5); (33, 5); (33, 5); (33, 5)</t>
-  </si>
-  <si>
-    <t>(33, 7); (33, 7); (33, 7); (33, 7); (33, 7)</t>
-  </si>
-  <si>
-    <t>(33, 8); (33, 8); (33, 8); (33, 8); (33, 8)</t>
-  </si>
-  <si>
-    <t>(33, 10); (33, 10); (33, 10); (33, 10); (33, 10)</t>
-  </si>
-  <si>
-    <t>(33, 13); (33, 13); (33, 13); (33, 13); (33, 13)</t>
-  </si>
-  <si>
-    <t>(33, 15); (33, 15); (33, 15); (33, 15); (33, 15)</t>
-  </si>
-  <si>
-    <t>(33, 17); (33, 17); (33, 17); (33, 17); (33, 17)</t>
-  </si>
-  <si>
-    <t>(37, 4); (37, 4); (37, 4); (37, 4); (37, 4)</t>
-  </si>
-  <si>
-    <t>(37, 5); (37, 5); (37, 5); (37, 5); (37, 5)</t>
-  </si>
-  <si>
-    <t>(37, 6); (37, 6); (37, 6); (37, 6); (37, 6)</t>
-  </si>
-  <si>
-    <t>(45, 10); (45, 10); (45, 10); (45, 10); (45, 10)</t>
-  </si>
-  <si>
-    <t>(45, 15); (45, 15); (45, 15); (45, 15); (45, 15)</t>
-  </si>
-  <si>
-    <t>(45, 17); (45, 17); (45, 17); (45, 17); (45, 17)</t>
-  </si>
-  <si>
-    <t>(49, 4); (49, 4); (49, 4); (49, 4); (49, 4)</t>
-  </si>
-  <si>
-    <t>(49, 6); (49, 6); (49, 6); (49, 6); (49, 6)</t>
-  </si>
-  <si>
-    <t>(57, 6); (57, 6); (57, 6); (57, 6); (57, 6)</t>
-  </si>
-  <si>
-    <t>(57, 8); (57, 8); (57, 8); (57, 8); (57, 8)</t>
-  </si>
-  <si>
-    <t>(57, 9); (57, 9); (57, 9); (57, 9); (57, 9)</t>
-  </si>
-  <si>
-    <t>(5, 4); (5, 4); (5, 4); (5, 4); (5, 4); (5, 4)</t>
-  </si>
-  <si>
-    <t>(5, 5); (5, 5); (5, 5); (5, 5); (5, 5); (5, 5)</t>
-  </si>
-  <si>
-    <t>(5, 7); (5, 7); (5, 7); (5, 7); (5, 7); (5, 7)</t>
-  </si>
-  <si>
-    <t>(5, 9); (5, 9); (5, 9); (5, 9); (5, 9); (5, 9)</t>
-  </si>
-  <si>
-    <t>(5, 10); (5, 10); (5, 10); (5, 10); (5, 10); (5, 10)</t>
-  </si>
-  <si>
-    <t>(5, 12); (5, 12); (5, 12); (5, 12); (5, 12); (5, 12)</t>
-  </si>
-  <si>
-    <t>(5, 14); (5, 14); (5, 14); (5, 14); (5, 14); (5, 14)</t>
-  </si>
-  <si>
-    <t>(5, 18); (5, 18); (5, 18); (5, 18); (5, 18); (5, 18)</t>
-  </si>
-  <si>
-    <t>(9, 4); (9, 4); (9, 4); (9, 4); (9, 4); (9, 4)</t>
-  </si>
-  <si>
-    <t>(9, 6); (9, 6); (9, 6); (9, 6); (9, 6); (9, 6)</t>
-  </si>
-  <si>
-    <t>(9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18)</t>
-  </si>
-  <si>
-    <t>(9, 9); (9, 9); (9, 9); (9, 9); (9, 9); (9, 9)</t>
-  </si>
-  <si>
-    <t>(9, 13); (9, 13); (9, 13); (9, 13); (9, 13); (9, 13)</t>
-  </si>
-  <si>
-    <t>(13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6)</t>
-  </si>
-  <si>
-    <t>(13, 8); (13, 8); (13, 8); (13, 8); (13, 8); (13, 8)</t>
-  </si>
-  <si>
-    <t>(21, 4); (21, 4); (21, 4); (21, 4); (21, 4); (21, 4)</t>
-  </si>
-  <si>
-    <t>(21, 5); (21, 5); (21, 5); (21, 5); (21, 5); (21, 5)</t>
-  </si>
-  <si>
-    <t>(21, 6); (21, 6); (21, 6); (21, 6); (21, 6); (21, 6)</t>
-  </si>
-  <si>
-    <t>(21, 7); (21, 7); (21, 7); (21, 7); (21, 7); (21, 7)</t>
-  </si>
-  <si>
-    <t>(21, 8); (21, 8); (21, 8); (21, 8); (21, 8); (21, 8)</t>
-  </si>
-  <si>
-    <t>(21, 9); (21, 9); (21, 9); (21, 9); (21, 9); (21, 9)</t>
-  </si>
-  <si>
-    <t>(21, 10); (21, 10); (21, 10); (21, 10); (21, 10); (21, 10)</t>
-  </si>
-  <si>
-    <t>(21, 13); (21, 13); (21, 13); (21, 13); (21, 13); (21, 13)</t>
-  </si>
-  <si>
-    <t>(21, 16); (21, 16); (21, 16); (21, 16); (21, 16); (21, 16)</t>
-  </si>
-  <si>
-    <t>(21, 17); (21, 17); (21, 17); (21, 17); (21, 17); (21, 17)</t>
-  </si>
-  <si>
-    <t>(33, 4); (33, 4); (33, 4); (33, 4); (33, 4); (33, 4)</t>
-  </si>
-  <si>
-    <t>(33, 5); (33, 5); (33, 5); (33, 5); (33, 5); (33, 5)</t>
-  </si>
-  <si>
-    <t>(33, 7); (33, 7); (33, 7); (33, 7); (33, 7); (33, 7)</t>
-  </si>
-  <si>
-    <t>(33, 8); (33, 8); (33, 8); (33, 8); (33, 8); (33, 8)</t>
-  </si>
-  <si>
-    <t>(33, 10); (33, 10); (33, 10); (33, 10); (33, 10); (33, 10)</t>
-  </si>
-  <si>
-    <t>(33, 13); (33, 13); (33, 13); (33, 13); (33, 13); (33, 13)</t>
-  </si>
-  <si>
-    <t>(33, 15); (33, 15); (33, 15); (33, 15); (33, 15); (33, 15)</t>
-  </si>
-  <si>
-    <t>(33, 17); (33, 17); (33, 17); (33, 17); (33, 17); (33, 17)</t>
-  </si>
-  <si>
-    <t>(37, 4); (37, 4); (37, 4); (37, 4); (37, 4); (37, 4)</t>
-  </si>
-  <si>
-    <t>(37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5)</t>
-  </si>
-  <si>
-    <t>(37, 6); (37, 6); (37, 6); (37, 6); (37, 6); (37, 6)</t>
-  </si>
-  <si>
-    <t>(45, 10); (45, 10); (45, 10); (45, 10); (45, 10); (45, 10)</t>
-  </si>
-  <si>
-    <t>(45, 15); (45, 15); (45, 15); (45, 15); (45, 15); (45, 15)</t>
-  </si>
-  <si>
-    <t>(45, 17); (45, 17); (45, 17); (45, 17); (45, 17); (45, 17)</t>
-  </si>
-  <si>
-    <t>(49, 4); (49, 4); (49, 4); (49, 4); (49, 4); (49, 4)</t>
-  </si>
-  <si>
-    <t>(49, 6); (49, 6); (49, 6); (49, 6); (49, 6); (49, 6)</t>
-  </si>
-  <si>
-    <t>(57, 6); (57, 6); (57, 6); (57, 6); (57, 6); (57, 6)</t>
-  </si>
-  <si>
-    <t>(57, 8); (57, 8); (57, 8); (57, 8); (57, 8); (57, 8)</t>
-  </si>
-  <si>
-    <t>(57, 9); (57, 9); (57, 9); (57, 9); (57, 9); (57, 9)</t>
-  </si>
-  <si>
-    <t>(57, 15); (57, 15); (57, 15); (57, 15); (57, 15); (57, 15)</t>
-  </si>
-  <si>
-    <t>(57, 16); (57, 16); (57, 16); (57, 16); (57, 16); (57, 16)</t>
-  </si>
-  <si>
-    <t>(5, 14); (5, 16); (33, 18); (57, 18); (5, 14); (5, 14); (5, 14); (5, 14)</t>
-  </si>
-  <si>
-    <t>(9, 4); (57, 13); (9, 4); (9, 4); (9, 4); (9, 4)</t>
-  </si>
-  <si>
-    <t>(57, 15); (61, 4); (57, 15); (57, 15); (57, 15); (57, 15)</t>
-  </si>
-  <si>
-    <t>(57, 16); (61, 5); (57, 16); (57, 16); (57, 16); (57, 16)</t>
   </si>
   <si>
     <t>hue5</t>
@@ -5600,6 +5213,445 @@
   </si>
   <si>
     <t>bbo2</t>
+  </si>
+  <si>
+    <t>bboh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5, 4); (5, 4); (5, 4); (5, 4); (5, 4); (5, 4); (5, 4); (5, 4)</t>
+  </si>
+  <si>
+    <t>(5, 5); (5, 5); (5, 5); (5, 5); (5, 5); (5, 5); (5, 5); (5, 5)</t>
+  </si>
+  <si>
+    <t>(5, 7); (5, 7); (5, 7); (5, 7); (5, 7); (5, 7); (5, 7); (5, 7)</t>
+  </si>
+  <si>
+    <t>(5, 9); (5, 9); (5, 9); (5, 9); (5, 9); (5, 9); (5, 9); (5, 9)</t>
+  </si>
+  <si>
+    <t>(5, 10); (5, 10); (5, 10); (5, 10); (5, 10); (5, 10); (5, 10); (5, 10)</t>
+  </si>
+  <si>
+    <t>(5, 12); (5, 12); (5, 12); (5, 12); (5, 12); (5, 12); (5, 12); (5, 12)</t>
+  </si>
+  <si>
+    <t>(5, 18); (5, 18); (5, 18); (5, 18); (5, 18); (5, 18); (5, 18); (5, 18)</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 6); (9, 6); (9, 6); (9, 6); (9, 6); (9, 6); (9, 6)</t>
+  </si>
+  <si>
+    <t>(9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18)</t>
+  </si>
+  <si>
+    <t>(9, 9); (9, 9); (9, 9); (9, 9); (9, 9); (9, 9); (9, 9); (9, 9)</t>
+  </si>
+  <si>
+    <t>(9, 13); (9, 13); (9, 13); (9, 13); (9, 13); (9, 13); (9, 13); (9, 13)</t>
+  </si>
+  <si>
+    <t>(13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6)</t>
+  </si>
+  <si>
+    <t>(13, 8); (13, 8); (13, 8); (13, 8); (13, 8); (13, 8); (13, 8); (13, 8)</t>
+  </si>
+  <si>
+    <t>(21, 4); (21, 4); (21, 4); (21, 4); (21, 4); (21, 4); (21, 4); (21, 4)</t>
+  </si>
+  <si>
+    <t>(21, 5); (21, 5); (21, 5); (21, 5); (21, 5); (21, 5); (21, 5); (21, 5)</t>
+  </si>
+  <si>
+    <t>(21, 6); (21, 6); (21, 6); (21, 6); (21, 6); (21, 6); (21, 6); (21, 6)</t>
+  </si>
+  <si>
+    <t>(21, 7); (21, 7); (21, 7); (21, 7); (21, 7); (21, 7); (21, 7); (21, 7)</t>
+  </si>
+  <si>
+    <t>(21, 8); (21, 8); (21, 8); (21, 8); (21, 8); (21, 8); (21, 8); (21, 8)</t>
+  </si>
+  <si>
+    <t>(21, 9); (21, 9); (21, 9); (21, 9); (21, 9); (21, 9); (21, 9); (21, 9)</t>
+  </si>
+  <si>
+    <t>(21, 10); (21, 10); (21, 10); (21, 10); (21, 10); (21, 10); (21, 10); (21, 10)</t>
+  </si>
+  <si>
+    <t>(21, 13); (21, 13); (21, 13); (21, 13); (21, 13); (21, 13); (21, 13); (21, 13)</t>
+  </si>
+  <si>
+    <t>(21, 16); (21, 16); (21, 16); (21, 16); (21, 16); (21, 16); (21, 16); (21, 16)</t>
+  </si>
+  <si>
+    <t>(21, 17); (21, 17); (21, 17); (21, 17); (21, 17); (21, 17); (21, 17); (21, 17)</t>
+  </si>
+  <si>
+    <t>(33, 4); (33, 4); (33, 4); (33, 4); (33, 4); (33, 4); (33, 4); (33, 4)</t>
+  </si>
+  <si>
+    <t>(33, 5); (33, 5); (33, 5); (33, 5); (33, 5); (33, 5); (33, 5); (33, 5)</t>
+  </si>
+  <si>
+    <t>(33, 7); (33, 7); (33, 7); (33, 7); (33, 7); (33, 7); (33, 7); (33, 7)</t>
+  </si>
+  <si>
+    <t>(33, 8); (33, 8); (33, 8); (33, 8); (33, 8); (33, 8); (33, 8); (33, 8)</t>
+  </si>
+  <si>
+    <t>(33, 10); (33, 10); (33, 10); (33, 10); (33, 10); (33, 10); (33, 10); (33, 10)</t>
+  </si>
+  <si>
+    <t>(33, 13); (33, 13); (33, 13); (33, 13); (33, 13); (33, 13); (33, 13); (33, 13)</t>
+  </si>
+  <si>
+    <t>(33, 15); (33, 15); (33, 15); (33, 15); (33, 15); (33, 15); (33, 15); (33, 15)</t>
+  </si>
+  <si>
+    <t>(33, 17); (33, 17); (33, 17); (33, 17); (33, 17); (33, 17); (33, 17); (33, 17)</t>
+  </si>
+  <si>
+    <t>(37, 4); (37, 4); (37, 4); (37, 4); (37, 4); (37, 4); (37, 4); (37, 4)</t>
+  </si>
+  <si>
+    <t>(37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5)</t>
+  </si>
+  <si>
+    <t>(37, 6); (37, 6); (37, 6); (37, 6); (37, 6); (37, 6); (37, 6); (37, 6)</t>
+  </si>
+  <si>
+    <t>(45, 10); (45, 10); (45, 10); (45, 10); (45, 10); (45, 10); (45, 10); (45, 10)</t>
+  </si>
+  <si>
+    <t>(45, 15); (45, 15); (45, 15); (45, 15); (45, 15); (45, 15); (45, 15); (45, 15)</t>
+  </si>
+  <si>
+    <t>(45, 17); (45, 17); (45, 17); (45, 17); (45, 17); (45, 17); (45, 17); (45, 17)</t>
+  </si>
+  <si>
+    <t>(49, 4); (49, 4); (49, 4); (49, 4); (49, 4); (49, 4); (49, 4); (49, 4)</t>
+  </si>
+  <si>
+    <t>(49, 6); (49, 6); (49, 6); (49, 6); (49, 6); (49, 6); (49, 6); (49, 6)</t>
+  </si>
+  <si>
+    <t>(57, 6); (57, 6); (57, 6); (57, 6); (57, 6); (57, 6); (57, 6); (57, 6)</t>
+  </si>
+  <si>
+    <t>(57, 8); (57, 8); (57, 8); (57, 8); (57, 8); (57, 8); (57, 8); (57, 8)</t>
+  </si>
+  <si>
+    <t>(57, 9); (57, 9); (57, 9); (57, 9); (57, 9); (57, 9); (57, 9); (57, 9)</t>
+  </si>
+  <si>
+    <t>geh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggeh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sne1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cia3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5, 6); (5, 6); (5, 6)</t>
+  </si>
+  <si>
+    <t>(5, 11); (5, 11); (5, 11)</t>
+  </si>
+  <si>
+    <t>(5, 13); (5, 13); (5, 13)</t>
+  </si>
+  <si>
+    <t>(5, 14); (5, 16); (33, 18); (57, 18); (5, 14); (5, 14); (5, 14); (5, 14); (5, 14); (5, 14); (5, 16); (33, 18); (57, 18); (5, 14); (5, 16); (33, 18); (57, 18)</t>
+  </si>
+  <si>
+    <t>(5, 17); (5, 17); (5, 17)</t>
+  </si>
+  <si>
+    <t>(9, 4); (57, 13); (9, 4); (9, 4); (9, 4); (9, 4); (9, 4); (9, 4); (57, 13); (9, 4); (57, 13)</t>
+  </si>
+  <si>
+    <t>(9, 8); (9, 8); (9, 8)</t>
+  </si>
+  <si>
+    <t>(9, 10); (9, 10); (9, 10)</t>
+  </si>
+  <si>
+    <t>(9, 12); (9, 12); (9, 12)</t>
+  </si>
+  <si>
+    <t>(9, 14); (9, 14); (9, 14)</t>
+  </si>
+  <si>
+    <t>(9, 15); (9, 15); (9, 15)</t>
+  </si>
+  <si>
+    <t>(9, 17); (9, 17); (9, 17)</t>
+  </si>
+  <si>
+    <t>(9, 18); (9, 18); (9, 18)</t>
+  </si>
+  <si>
+    <t>(13, 4); (13, 4); (13, 4)</t>
+  </si>
+  <si>
+    <t>(13, 7); (13, 7); (13, 7)</t>
+  </si>
+  <si>
+    <t>(13, 9); (13, 9); (13, 9)</t>
+  </si>
+  <si>
+    <t>(21, 12); (21, 12); (21, 12)</t>
+  </si>
+  <si>
+    <t>(21, 14); (21, 14); (21, 14)</t>
+  </si>
+  <si>
+    <t>(21, 15); (21, 15); (21, 15)</t>
+  </si>
+  <si>
+    <t>(33, 6); (33, 6); (33, 6)</t>
+  </si>
+  <si>
+    <t>(33, 9); (33, 9); (33, 9)</t>
+  </si>
+  <si>
+    <t>(33, 12); (33, 12); (33, 12)</t>
+  </si>
+  <si>
+    <t>(33, 16); (33, 16); (33, 16)</t>
+  </si>
+  <si>
+    <t>(45, 4); (45, 4); (45, 4)</t>
+  </si>
+  <si>
+    <t>(45, 5); (45, 5); (45, 5)</t>
+  </si>
+  <si>
+    <t>(45, 6); (45, 6); (45, 6)</t>
+  </si>
+  <si>
+    <t>(45, 7); (57, 17); (45, 7); (57, 17); (45, 7); (57, 17)</t>
+  </si>
+  <si>
+    <t>(45, 8); (45, 8); (45, 8)</t>
+  </si>
+  <si>
+    <t>(45, 9); (45, 9); (45, 9)</t>
+  </si>
+  <si>
+    <t>(45, 12); (45, 12); (45, 12)</t>
+  </si>
+  <si>
+    <t>(45, 13); (45, 13); (45, 13)</t>
+  </si>
+  <si>
+    <t>(45, 16); (45, 16); (45, 16); (45, 16)</t>
+  </si>
+  <si>
+    <t>(45, 18); (45, 18); (45, 18)</t>
+  </si>
+  <si>
+    <t>(49, 5); (49, 5); (49, 5); (49, 5)</t>
+  </si>
+  <si>
+    <t>(57, 4); (57, 4); (57, 4); (57, 4)</t>
+  </si>
+  <si>
+    <t>(57, 5); (57, 5); (57, 5)</t>
+  </si>
+  <si>
+    <t>(57, 7); (57, 7); (57, 7)</t>
+  </si>
+  <si>
+    <t>(57, 10); (57, 10); (57, 10)</t>
+  </si>
+  <si>
+    <t>(57, 12); (57, 12); (57, 12)</t>
+  </si>
+  <si>
+    <t>(57, 15); (61, 4); (57, 15); (57, 15); (57, 15); (57, 15); (57, 15); (57, 15); (61, 4); (57, 15); (61, 4)</t>
+  </si>
+  <si>
+    <t>(57, 16); (61, 5); (57, 16); (57, 16); (57, 16); (57, 16); (57, 16); (57, 16); (61, 5); (57, 16); (61, 5)</t>
+  </si>
+  <si>
+    <t>(5, 4); (5, 4); (5, 4); (5, 4); (5, 4); (5, 4); (5, 4); (5, 4); (5, 4); (5, 4)</t>
+  </si>
+  <si>
+    <t>(5, 5); (5, 5); (5, 5); (5, 5); (5, 5); (5, 5); (5, 5); (5, 5); (5, 5); (5, 5)</t>
+  </si>
+  <si>
+    <t>(5, 7); (5, 7); (5, 7); (5, 7); (5, 7); (5, 7); (5, 7); (5, 7); (5, 7); (5, 7)</t>
+  </si>
+  <si>
+    <t>(5, 9); (5, 9); (5, 9); (5, 9); (5, 9); (5, 9); (5, 9); (5, 9); (5, 9); (5, 9)</t>
+  </si>
+  <si>
+    <t>(5, 10); (5, 10); (5, 10); (5, 10); (5, 10); (5, 10); (5, 10); (5, 10); (5, 10); (5, 10)</t>
+  </si>
+  <si>
+    <t>(5, 12); (5, 12); (5, 12); (5, 12); (5, 12); (5, 12); (5, 12); (5, 12); (5, 12); (5, 12)</t>
+  </si>
+  <si>
+    <t>(5, 14); (5, 14); (5, 14); (5, 14); (5, 14); (5, 14); (5, 14); (5, 14); (5, 14); (5, 14)</t>
+  </si>
+  <si>
+    <t>(5, 18); (5, 18); (5, 18); (5, 18); (5, 18); (5, 18); (5, 18); (5, 18); (5, 18); (5, 18)</t>
+  </si>
+  <si>
+    <t>(9, 4); (9, 4); (9, 4); (9, 4); (9, 4); (9, 4); (9, 4); (9, 4); (9, 4); (9, 4)</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 6); (9, 6); (9, 6); (9, 6); (9, 6); (9, 6); (9, 6); (9, 6); (9, 6)</t>
+  </si>
+  <si>
+    <t>(9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18); (9, 7); (21, 18)</t>
+  </si>
+  <si>
+    <t>(9, 9); (9, 9); (9, 9); (9, 9); (9, 9); (9, 9); (9, 9); (9, 9); (9, 9); (9, 9)</t>
+  </si>
+  <si>
+    <t>(9, 13); (9, 13); (9, 13); (9, 13); (9, 13); (9, 13); (9, 13); (9, 13); (9, 13); (9, 13)</t>
+  </si>
+  <si>
+    <t>(13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6); (13, 5); (61, 6)</t>
+  </si>
+  <si>
+    <t>(13, 8); (13, 8); (13, 8); (13, 8); (13, 8); (13, 8); (13, 8); (13, 8); (13, 8); (13, 8)</t>
+  </si>
+  <si>
+    <t>(21, 4); (21, 4); (21, 4); (21, 4); (21, 4); (21, 4); (21, 4); (21, 4); (21, 4); (21, 4)</t>
+  </si>
+  <si>
+    <t>(21, 5); (21, 5); (21, 5); (21, 5); (21, 5); (21, 5); (21, 5); (21, 5); (21, 5); (21, 5)</t>
+  </si>
+  <si>
+    <t>(21, 6); (21, 6); (21, 6); (21, 6); (21, 6); (21, 6); (21, 6); (21, 6); (21, 6); (21, 6)</t>
+  </si>
+  <si>
+    <t>(21, 7); (21, 7); (21, 7); (21, 7); (21, 7); (21, 7); (21, 7); (21, 7); (21, 7); (21, 7)</t>
+  </si>
+  <si>
+    <t>(21, 8); (21, 8); (21, 8); (21, 8); (21, 8); (21, 8); (21, 8); (21, 8); (21, 8); (21, 8)</t>
+  </si>
+  <si>
+    <t>(21, 9); (21, 9); (21, 9); (21, 9); (21, 9); (21, 9); (21, 9); (21, 9); (21, 9); (21, 9)</t>
+  </si>
+  <si>
+    <t>(21, 10); (21, 10); (21, 10); (21, 10); (21, 10); (21, 10); (21, 10); (21, 10); (21, 10); (21, 10)</t>
+  </si>
+  <si>
+    <t>(21, 13); (21, 13); (21, 13); (21, 13); (21, 13); (21, 13); (21, 13); (21, 13); (21, 13); (21, 13)</t>
+  </si>
+  <si>
+    <t>(21, 16); (21, 16); (21, 16); (21, 16); (21, 16); (21, 16); (21, 16); (21, 16); (21, 16); (21, 16)</t>
+  </si>
+  <si>
+    <t>(21, 17); (21, 17); (21, 17); (21, 17); (21, 17); (21, 17); (21, 17); (21, 17); (21, 17); (21, 17)</t>
+  </si>
+  <si>
+    <t>(33, 4); (33, 4); (33, 4); (33, 4); (33, 4); (33, 4); (33, 4); (33, 4); (33, 4); (33, 4)</t>
+  </si>
+  <si>
+    <t>(33, 5); (33, 5); (33, 5); (33, 5); (33, 5); (33, 5); (33, 5); (33, 5); (33, 5); (33, 5)</t>
+  </si>
+  <si>
+    <t>(33, 7); (33, 7); (33, 7); (33, 7); (33, 7); (33, 7); (33, 7); (33, 7); (33, 7); (33, 7)</t>
+  </si>
+  <si>
+    <t>(33, 8); (33, 8); (33, 8); (33, 8); (33, 8); (33, 8); (33, 8); (33, 8); (33, 8); (33, 8)</t>
+  </si>
+  <si>
+    <t>(33, 10); (33, 10); (33, 10); (33, 10); (33, 10); (33, 10); (33, 10); (33, 10); (33, 10); (33, 10)</t>
+  </si>
+  <si>
+    <t>(33, 13); (33, 13); (33, 13); (33, 13); (33, 13); (33, 13); (33, 13); (33, 13); (33, 13); (33, 13)</t>
+  </si>
+  <si>
+    <t>(33, 15); (33, 15); (33, 15); (33, 15); (33, 15); (33, 15); (33, 15); (33, 15); (33, 15); (33, 15)</t>
+  </si>
+  <si>
+    <t>(33, 17); (33, 17); (33, 17); (33, 17); (33, 17); (33, 17); (33, 17); (33, 17); (33, 17); (33, 17)</t>
+  </si>
+  <si>
+    <t>(37, 4); (37, 4); (37, 4); (37, 4); (37, 4); (37, 4); (37, 4); (37, 4); (37, 4); (37, 4)</t>
+  </si>
+  <si>
+    <t>(37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5)</t>
+  </si>
+  <si>
+    <t>(37, 6); (37, 6); (37, 6); (37, 6); (37, 6); (37, 6); (37, 6); (37, 6); (37, 6); (37, 6)</t>
+  </si>
+  <si>
+    <t>(45, 10); (45, 10); (45, 10); (45, 10); (45, 10); (45, 10); (45, 10); (45, 10); (45, 10); (45, 10)</t>
+  </si>
+  <si>
+    <t>(45, 15); (45, 15); (45, 15); (45, 15); (45, 15); (45, 15); (45, 15); (45, 15); (45, 15); (45, 15)</t>
+  </si>
+  <si>
+    <t>(45, 17); (45, 17); (45, 17); (45, 17); (45, 17); (45, 17); (45, 17); (45, 17); (45, 17); (45, 17)</t>
+  </si>
+  <si>
+    <t>(49, 4); (49, 4); (49, 4); (49, 4); (49, 4); (49, 4); (49, 4); (49, 4); (49, 4); (49, 4)</t>
+  </si>
+  <si>
+    <t>(49, 6); (49, 6); (49, 6); (49, 6); (49, 6); (49, 6); (49, 6); (49, 6); (49, 6); (49, 6)</t>
+  </si>
+  <si>
+    <t>(57, 6); (57, 6); (57, 6); (57, 6); (57, 6); (57, 6); (57, 6); (57, 6); (57, 6); (57, 6)</t>
+  </si>
+  <si>
+    <t>(57, 8); (57, 8); (57, 8); (57, 8); (57, 8); (57, 8); (57, 8); (57, 8); (57, 8); (57, 8)</t>
+  </si>
+  <si>
+    <t>(57, 9); (57, 9); (57, 9); (57, 9); (57, 9); (57, 9); (57, 9); (57, 9); (57, 9); (57, 9)</t>
+  </si>
+  <si>
+    <t>(57, 15); (57, 15); (57, 15); (57, 15); (57, 15); (57, 15); (57, 15); (57, 15); (57, 15); (57, 15)</t>
+  </si>
+  <si>
+    <t>(57, 16); (57, 16); (57, 16); (57, 16); (57, 16); (57, 16); (57, 16); (57, 16); (57, 16); (57, 16)</t>
   </si>
 </sst>
 </file>
@@ -6038,7 +6090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6239,6 +6291,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9630,7 +9685,7 @@
     </row>
     <row r="2" spans="2:11" ht="30">
       <c r="B2" s="47" t="s">
-        <v>1445</v>
+        <v>1416</v>
       </c>
       <c r="C2" s="50">
         <v>1</v>
@@ -9638,10 +9693,10 @@
     </row>
     <row r="3" spans="2:11" ht="30">
       <c r="B3" s="47" t="s">
-        <v>1446</v>
+        <v>1417</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1447</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -9655,7 +9710,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -9663,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1382</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -9671,7 +9726,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -9687,7 +9742,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="30">
@@ -9695,7 +9750,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -9727,7 +9782,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
@@ -9735,7 +9790,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
@@ -9743,7 +9798,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -9751,7 +9806,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -9759,7 +9814,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -9767,7 +9822,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -9775,12 +9830,12 @@
         <v>17</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>1384</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
       <c r="B20" s="47" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C20" s="53">
         <v>7</v>
@@ -13907,9 +13962,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F1DE8E-9CCD-4191-9234-DAF3CD1B7934}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -13937,7 +13992,7 @@
         <v>1161</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>1173</v>
@@ -13946,7 +14001,7 @@
         <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>1521</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13954,7 +14009,7 @@
         <v>167</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>386</v>
@@ -13963,7 +14018,7 @@
         <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>1522</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13971,7 +14026,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>1245</v>
@@ -13980,7 +14035,7 @@
         <v>499</v>
       </c>
       <c r="E4" t="s">
-        <v>1523</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13988,7 +14043,7 @@
         <v>222</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>1230</v>
@@ -13997,7 +14052,7 @@
         <v>499</v>
       </c>
       <c r="E5" t="s">
-        <v>1524</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14005,7 +14060,7 @@
         <v>116</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>382</v>
@@ -14014,7 +14069,7 @@
         <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>1525</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14022,7 +14077,7 @@
         <v>1163</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>1213</v>
@@ -14031,7 +14086,7 @@
         <v>499</v>
       </c>
       <c r="E7" t="s">
-        <v>1526</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14039,7 +14094,7 @@
         <v>164</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -14048,7 +14103,7 @@
         <v>499</v>
       </c>
       <c r="E8" t="s">
-        <v>1527</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14056,7 +14111,7 @@
         <v>291</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -14065,7 +14120,7 @@
         <v>499</v>
       </c>
       <c r="E9" t="s">
-        <v>1528</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14073,7 +14128,7 @@
         <v>199</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>359</v>
@@ -14082,7 +14137,7 @@
         <v>499</v>
       </c>
       <c r="E10" t="s">
-        <v>1529</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14090,7 +14145,7 @@
         <v>1177</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>1178</v>
@@ -14099,7 +14154,7 @@
         <v>499</v>
       </c>
       <c r="E11" t="s">
-        <v>1530</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14107,7 +14162,7 @@
         <v>185</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>1179</v>
@@ -14116,7 +14171,7 @@
         <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>1531</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14124,7 +14179,7 @@
         <v>1246</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>1231</v>
@@ -14133,7 +14188,7 @@
         <v>499</v>
       </c>
       <c r="E13" t="s">
-        <v>1532</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14141,7 +14196,7 @@
         <v>1199</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>391</v>
@@ -14150,7 +14205,7 @@
         <v>499</v>
       </c>
       <c r="E14" t="s">
-        <v>1533</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14158,16 +14213,16 @@
         <v>1253</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="D15" t="s">
         <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>1534</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14175,16 +14230,16 @@
         <v>105</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="D16" t="s">
         <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>1535</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -14192,16 +14247,16 @@
         <v>1250</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="D17" t="s">
         <v>499</v>
       </c>
       <c r="E17" t="s">
-        <v>1536</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -14209,7 +14264,7 @@
         <v>1204</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>1205</v>
@@ -14218,7 +14273,7 @@
         <v>499</v>
       </c>
       <c r="E18" t="s">
-        <v>1537</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -14226,16 +14281,16 @@
         <v>1242</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="D19" t="s">
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1538</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -14243,7 +14298,7 @@
         <v>1187</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>1184</v>
@@ -14252,7 +14307,7 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1539</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -14260,7 +14315,7 @@
         <v>1175</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>1176</v>
@@ -14269,7 +14324,7 @@
         <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>1540</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -14277,7 +14332,7 @@
         <v>1197</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>1256</v>
@@ -14286,7 +14341,7 @@
         <v>499</v>
       </c>
       <c r="E22" t="s">
-        <v>1541</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -14294,7 +14349,7 @@
         <v>1201</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>1202</v>
@@ -14303,7 +14358,7 @@
         <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>1542</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -14311,7 +14366,7 @@
         <v>1226</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>1165</v>
@@ -14320,7 +14375,7 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>1543</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -14328,16 +14383,16 @@
         <v>1160</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>1397</v>
+        <v>1375</v>
       </c>
       <c r="D25" t="s">
         <v>499</v>
       </c>
       <c r="E25" t="s">
-        <v>1544</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -14345,16 +14400,16 @@
         <v>1244</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="D26" t="s">
         <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>1545</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -14362,7 +14417,7 @@
         <v>1220</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>307</v>
@@ -14371,7 +14426,7 @@
         <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>1546</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -14379,7 +14434,7 @@
         <v>1228</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>1229</v>
@@ -14388,7 +14443,7 @@
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1547</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -14396,7 +14451,7 @@
         <v>1198</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>1207</v>
@@ -14405,7 +14460,7 @@
         <v>499</v>
       </c>
       <c r="E29" t="s">
-        <v>1548</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -14413,7 +14468,7 @@
         <v>1260</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>1261</v>
@@ -14422,7 +14477,7 @@
         <v>499</v>
       </c>
       <c r="E30" t="s">
-        <v>1549</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -14430,16 +14485,16 @@
         <v>1194</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="D31" t="s">
         <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>1550</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -14447,7 +14502,7 @@
         <v>1185</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>1227</v>
@@ -14456,7 +14511,7 @@
         <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>1551</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -14464,16 +14519,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="D33" t="s">
         <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1552</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -14481,7 +14536,7 @@
         <v>237</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
         <v>443</v>
@@ -14490,7 +14545,7 @@
         <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>1553</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -14498,7 +14553,7 @@
         <v>1217</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>461</v>
@@ -14507,7 +14562,7 @@
         <v>499</v>
       </c>
       <c r="E35" t="s">
-        <v>1554</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -14515,7 +14570,7 @@
         <v>1162</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
         <v>1234</v>
@@ -14524,7 +14579,7 @@
         <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>1555</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -14532,7 +14587,7 @@
         <v>1159</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
         <v>1264</v>
@@ -14541,7 +14596,7 @@
         <v>499</v>
       </c>
       <c r="E37" t="s">
-        <v>1556</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -14549,16 +14604,16 @@
         <v>1262</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
       <c r="D38" t="s">
         <v>499</v>
       </c>
       <c r="E38" t="s">
-        <v>1557</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -14566,7 +14621,7 @@
         <v>119</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
         <v>1210</v>
@@ -14575,7 +14630,7 @@
         <v>499</v>
       </c>
       <c r="E39" t="s">
-        <v>1558</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -14583,16 +14638,16 @@
         <v>1249</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>1403</v>
+        <v>1381</v>
       </c>
       <c r="D40" t="s">
         <v>499</v>
       </c>
       <c r="E40" t="s">
-        <v>1559</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -14600,7 +14655,7 @@
         <v>1236</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>1235</v>
@@ -14609,7 +14664,7 @@
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1560</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -14617,7 +14672,7 @@
         <v>1188</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>1189</v>
@@ -14626,7 +14681,7 @@
         <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>1561</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -14634,7 +14689,7 @@
         <v>1157</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
         <v>1218</v>
@@ -14643,7 +14698,7 @@
         <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1562</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -14651,7 +14706,7 @@
         <v>209</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>1239</v>
@@ -14660,7 +14715,7 @@
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1563</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -14668,7 +14723,7 @@
         <v>1255</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
         <v>1168</v>
@@ -14677,7 +14732,7 @@
         <v>499</v>
       </c>
       <c r="E45" t="s">
-        <v>1564</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -14685,7 +14740,7 @@
         <v>138</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>1174</v>
@@ -14694,7 +14749,7 @@
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1565</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -14702,7 +14757,7 @@
         <v>26</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
         <v>1254</v>
@@ -14711,7 +14766,58 @@
         <v>499</v>
       </c>
       <c r="E47" t="s">
-        <v>1566</v>
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D48" t="s">
+        <v>499</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D49" t="s">
+        <v>499</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>499</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1612</v>
       </c>
     </row>
   </sheetData>
@@ -14724,7 +14830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89D5D3-C63C-43B0-8812-66E57F8CCA70}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -14750,16 +14856,16 @@
         <v>1161</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>1173</v>
       </c>
       <c r="D2" t="s">
-        <v>1173</v>
+        <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>1479</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14767,16 +14873,16 @@
         <v>167</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1362</v>
+        <v>1341</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>1480</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14784,16 +14890,16 @@
         <v>1206</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D4" t="s">
         <v>499</v>
       </c>
       <c r="E4" t="s">
-        <v>920</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14801,16 +14907,16 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>1245</v>
       </c>
       <c r="D5" t="s">
-        <v>1245</v>
+        <v>499</v>
       </c>
       <c r="E5" t="s">
-        <v>1481</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14818,16 +14924,16 @@
         <v>222</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>1230</v>
       </c>
       <c r="D6" t="s">
-        <v>1230</v>
+        <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>1482</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14835,16 +14941,16 @@
         <v>116</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>382</v>
+        <v>499</v>
       </c>
       <c r="E7" t="s">
-        <v>1483</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14852,7 +14958,7 @@
         <v>1258</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>1248</v>
@@ -14861,7 +14967,7 @@
         <v>499</v>
       </c>
       <c r="E8" t="s">
-        <v>924</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14869,16 +14975,16 @@
         <v>1163</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>1171</v>
       </c>
       <c r="D9" t="s">
-        <v>1213</v>
+        <v>499</v>
       </c>
       <c r="E9" t="s">
-        <v>1484</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14886,7 +14992,7 @@
         <v>1257</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>1252</v>
@@ -14895,7 +15001,7 @@
         <v>499</v>
       </c>
       <c r="E10" t="s">
-        <v>926</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14903,16 +15009,16 @@
         <v>164</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>499</v>
       </c>
       <c r="E11" t="s">
-        <v>1567</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14920,7 +15026,7 @@
         <v>84</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>325</v>
@@ -14929,7 +15035,7 @@
         <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>930</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14937,16 +15043,16 @@
         <v>291</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>499</v>
       </c>
       <c r="E13" t="s">
-        <v>1485</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14954,16 +15060,16 @@
         <v>199</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>359</v>
       </c>
       <c r="D14" t="s">
-        <v>359</v>
+        <v>499</v>
       </c>
       <c r="E14" t="s">
-        <v>1568</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14971,16 +15077,16 @@
         <v>1177</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>1178</v>
       </c>
       <c r="D15" t="s">
-        <v>1178</v>
+        <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>1486</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14988,16 +15094,16 @@
         <v>185</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>1179</v>
       </c>
       <c r="D16" t="s">
-        <v>1179</v>
+        <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>1487</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -15005,7 +15111,7 @@
         <v>259</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>457</v>
@@ -15014,7 +15120,7 @@
         <v>499</v>
       </c>
       <c r="E17" t="s">
-        <v>933</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -15022,16 +15128,16 @@
         <v>1246</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>1231</v>
       </c>
       <c r="D18" t="s">
-        <v>1231</v>
+        <v>499</v>
       </c>
       <c r="E18" t="s">
-        <v>1488</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -15039,7 +15145,7 @@
         <v>1247</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>1232</v>
@@ -15048,7 +15154,7 @@
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1296</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -15056,7 +15162,7 @@
         <v>1156</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>1164</v>
@@ -15065,7 +15171,7 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1297</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -15073,16 +15179,16 @@
         <v>1199</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>391</v>
       </c>
       <c r="D21" t="s">
-        <v>391</v>
+        <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>1489</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -15090,7 +15196,7 @@
         <v>168</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>1212</v>
@@ -15099,7 +15205,7 @@
         <v>499</v>
       </c>
       <c r="E22" t="s">
-        <v>938</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -15107,7 +15213,7 @@
         <v>1203</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>1181</v>
@@ -15116,7 +15222,7 @@
         <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>939</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -15124,7 +15230,7 @@
         <v>1211</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>336</v>
@@ -15133,7 +15239,7 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>1298</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -15141,7 +15247,7 @@
         <v>210</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>1233</v>
@@ -15150,7 +15256,7 @@
         <v>499</v>
       </c>
       <c r="E25" t="s">
-        <v>941</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -15158,7 +15264,7 @@
         <v>1158</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>1167</v>
@@ -15167,7 +15273,7 @@
         <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>942</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -15175,16 +15281,16 @@
         <v>1253</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>380</v>
       </c>
       <c r="D27" t="s">
-        <v>1389</v>
+        <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>1490</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -15192,7 +15298,7 @@
         <v>1238</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>1169</v>
@@ -15201,7 +15307,7 @@
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1268</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -15209,16 +15315,16 @@
         <v>105</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="D29" t="s">
-        <v>1391</v>
+        <v>499</v>
       </c>
       <c r="E29" t="s">
-        <v>1491</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -15226,7 +15332,7 @@
         <v>136</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>362</v>
@@ -15235,7 +15341,7 @@
         <v>499</v>
       </c>
       <c r="E30" t="s">
-        <v>1300</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -15243,16 +15349,16 @@
         <v>1250</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>1251</v>
       </c>
       <c r="D31" t="s">
-        <v>1393</v>
+        <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>1492</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -15260,16 +15366,16 @@
         <v>1204</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>1205</v>
       </c>
       <c r="D32" t="s">
-        <v>1205</v>
+        <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>1493</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -15277,16 +15383,16 @@
         <v>1242</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="D33" t="s">
-        <v>1370</v>
+        <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1494</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -15294,16 +15400,16 @@
         <v>1187</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>1184</v>
       </c>
       <c r="D34" t="s">
-        <v>1184</v>
+        <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>1495</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -15311,16 +15417,16 @@
         <v>1175</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>1186</v>
       </c>
       <c r="D35" t="s">
-        <v>1176</v>
+        <v>499</v>
       </c>
       <c r="E35" t="s">
-        <v>1496</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -15328,16 +15434,16 @@
         <v>1197</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>1256</v>
       </c>
       <c r="D36" t="s">
-        <v>1256</v>
+        <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>1497</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -15345,16 +15451,16 @@
         <v>1201</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>1202</v>
       </c>
       <c r="D37" t="s">
-        <v>1202</v>
+        <v>499</v>
       </c>
       <c r="E37" t="s">
-        <v>1498</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -15362,7 +15468,7 @@
         <v>252</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -15371,7 +15477,7 @@
         <v>499</v>
       </c>
       <c r="E38" t="s">
-        <v>1274</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -15379,16 +15485,16 @@
         <v>1226</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>1165</v>
       </c>
       <c r="D39" t="s">
-        <v>1165</v>
+        <v>499</v>
       </c>
       <c r="E39" t="s">
-        <v>1499</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -15396,7 +15502,7 @@
         <v>1223</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
         <v>1224</v>
@@ -15405,7 +15511,7 @@
         <v>499</v>
       </c>
       <c r="E40" t="s">
-        <v>1276</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -15413,7 +15519,7 @@
         <v>194</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>407</v>
@@ -15422,7 +15528,7 @@
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1302</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -15430,16 +15536,16 @@
         <v>1160</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>1436</v>
+        <v>1409</v>
       </c>
       <c r="D42" t="s">
-        <v>1397</v>
+        <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>1500</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -15447,16 +15553,16 @@
         <v>1244</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="D43" t="s">
-        <v>1374</v>
+        <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1501</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -15464,16 +15570,16 @@
         <v>1220</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>307</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1502</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -15481,16 +15587,16 @@
         <v>1228</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>1229</v>
       </c>
       <c r="D45" t="s">
-        <v>1229</v>
+        <v>499</v>
       </c>
       <c r="E45" t="s">
-        <v>1503</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -15498,7 +15604,7 @@
         <v>1180</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>1208</v>
@@ -15507,7 +15613,7 @@
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1307</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -15515,16 +15621,16 @@
         <v>1198</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>1207</v>
       </c>
       <c r="D47" t="s">
-        <v>1207</v>
+        <v>499</v>
       </c>
       <c r="E47" t="s">
-        <v>1504</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -15532,16 +15638,16 @@
         <v>1260</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>1261</v>
       </c>
       <c r="D48" t="s">
-        <v>1261</v>
+        <v>499</v>
       </c>
       <c r="E48" t="s">
-        <v>1505</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -15549,7 +15655,7 @@
         <v>111</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
@@ -15558,7 +15664,7 @@
         <v>499</v>
       </c>
       <c r="E49" t="s">
-        <v>1309</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -15566,16 +15672,16 @@
         <v>1194</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="D50" t="s">
-        <v>1350</v>
+        <v>499</v>
       </c>
       <c r="E50" t="s">
-        <v>1506</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -15583,7 +15689,7 @@
         <v>298</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
         <v>1237</v>
@@ -15592,7 +15698,7 @@
         <v>499</v>
       </c>
       <c r="E51" t="s">
-        <v>1311</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -15600,16 +15706,16 @@
         <v>1185</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>1227</v>
       </c>
       <c r="D52" t="s">
-        <v>1227</v>
+        <v>499</v>
       </c>
       <c r="E52" t="s">
-        <v>1507</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -15617,16 +15723,16 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="D53" t="s">
-        <v>1353</v>
+        <v>499</v>
       </c>
       <c r="E53" t="s">
-        <v>1508</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -15634,7 +15740,7 @@
         <v>1259</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
         <v>1170</v>
@@ -15643,7 +15749,7 @@
         <v>499</v>
       </c>
       <c r="E54" t="s">
-        <v>982</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -15651,16 +15757,16 @@
         <v>237</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>1214</v>
       </c>
       <c r="D55" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="E55" t="s">
-        <v>1509</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -15668,16 +15774,16 @@
         <v>1217</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>1209</v>
       </c>
       <c r="D56" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="E56" t="s">
-        <v>1510</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -15685,16 +15791,16 @@
         <v>1162</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>1215</v>
       </c>
       <c r="D57" t="s">
-        <v>1234</v>
+        <v>499</v>
       </c>
       <c r="E57" t="s">
-        <v>1511</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15702,16 +15808,16 @@
         <v>1159</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>1216</v>
       </c>
       <c r="D58" t="s">
-        <v>1264</v>
+        <v>499</v>
       </c>
       <c r="E58" t="s">
-        <v>1512</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -15719,7 +15825,7 @@
         <v>1192</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
         <v>1193</v>
@@ -15728,7 +15834,7 @@
         <v>499</v>
       </c>
       <c r="E59" t="s">
-        <v>1336</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -15736,7 +15842,7 @@
         <v>1191</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
         <v>1266</v>
@@ -15745,7 +15851,7 @@
         <v>499</v>
       </c>
       <c r="E60" t="s">
-        <v>1002</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -15753,7 +15859,7 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
         <v>303</v>
@@ -15762,7 +15868,7 @@
         <v>499</v>
       </c>
       <c r="E61" t="s">
-        <v>1337</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -15770,7 +15876,7 @@
         <v>170</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>389</v>
@@ -15779,7 +15885,7 @@
         <v>499</v>
       </c>
       <c r="E62" t="s">
-        <v>1338</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -15787,7 +15893,7 @@
         <v>1225</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
         <v>403</v>
@@ -15796,7 +15902,7 @@
         <v>499</v>
       </c>
       <c r="E63" t="s">
-        <v>1004</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -15804,7 +15910,7 @@
         <v>262</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>460</v>
@@ -15813,7 +15919,7 @@
         <v>499</v>
       </c>
       <c r="E64" t="s">
-        <v>1339</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -15821,16 +15927,16 @@
         <v>1262</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>1241</v>
       </c>
       <c r="D65" t="s">
-        <v>1401</v>
+        <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1513</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -15838,7 +15944,7 @@
         <v>296</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
         <v>481</v>
@@ -15847,7 +15953,7 @@
         <v>499</v>
       </c>
       <c r="E66" t="s">
-        <v>1007</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -15855,7 +15961,7 @@
         <v>1222</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>1221</v>
@@ -15864,7 +15970,7 @@
         <v>499</v>
       </c>
       <c r="E67" t="s">
-        <v>1008</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -15872,16 +15978,16 @@
         <v>119</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>1210</v>
       </c>
       <c r="D68" t="s">
-        <v>1210</v>
+        <v>499</v>
       </c>
       <c r="E68" t="s">
-        <v>1514</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -15889,7 +15995,7 @@
         <v>1200</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
         <v>1263</v>
@@ -15898,7 +16004,7 @@
         <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>1010</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -15906,16 +16012,16 @@
         <v>1249</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
       <c r="D70" t="s">
-        <v>1403</v>
+        <v>499</v>
       </c>
       <c r="E70" t="s">
-        <v>1515</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -15923,16 +16029,16 @@
         <v>1196</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="D71" t="s">
         <v>499</v>
       </c>
       <c r="E71" t="s">
-        <v>1340</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -15940,16 +16046,16 @@
         <v>1236</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>1235</v>
       </c>
       <c r="D72" t="s">
-        <v>1235</v>
+        <v>499</v>
       </c>
       <c r="E72" t="s">
-        <v>1516</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -15957,7 +16063,7 @@
         <v>1190</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>1240</v>
@@ -15966,7 +16072,7 @@
         <v>499</v>
       </c>
       <c r="E73" t="s">
-        <v>1012</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -15974,16 +16080,16 @@
         <v>1188</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>1189</v>
       </c>
       <c r="D74" t="s">
-        <v>1189</v>
+        <v>499</v>
       </c>
       <c r="E74" t="s">
-        <v>1517</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -15991,7 +16097,7 @@
         <v>1219</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
         <v>1195</v>
@@ -16000,7 +16106,7 @@
         <v>499</v>
       </c>
       <c r="E75" t="s">
-        <v>1342</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -16008,7 +16114,7 @@
         <v>1243</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
         <v>308</v>
@@ -16017,7 +16123,7 @@
         <v>499</v>
       </c>
       <c r="E76" t="s">
-        <v>1343</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -16025,16 +16131,16 @@
         <v>1157</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>1166</v>
       </c>
       <c r="D77" t="s">
-        <v>1218</v>
+        <v>499</v>
       </c>
       <c r="E77" t="s">
-        <v>1518</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -16042,7 +16148,7 @@
         <v>1182</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
         <v>1183</v>
@@ -16051,7 +16157,7 @@
         <v>499</v>
       </c>
       <c r="E78" t="s">
-        <v>1345</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -16059,16 +16165,16 @@
         <v>209</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>372</v>
       </c>
       <c r="D79" t="s">
-        <v>1239</v>
+        <v>499</v>
       </c>
       <c r="E79" t="s">
-        <v>1519</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -16076,16 +16182,16 @@
         <v>1255</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>1168</v>
       </c>
       <c r="D80" t="s">
-        <v>1168</v>
+        <v>499</v>
       </c>
       <c r="E80" t="s">
-        <v>1520</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -16093,7 +16199,7 @@
         <v>280</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
         <v>362</v>
@@ -16102,7 +16208,7 @@
         <v>499</v>
       </c>
       <c r="E81" t="s">
-        <v>1348</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -16110,7 +16216,7 @@
         <v>299</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
         <v>483</v>
@@ -16119,7 +16225,7 @@
         <v>499</v>
       </c>
       <c r="E82" t="s">
-        <v>1349</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -16127,16 +16233,16 @@
         <v>138</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
         <v>1174</v>
       </c>
       <c r="D83" t="s">
-        <v>1174</v>
+        <v>499</v>
       </c>
       <c r="E83" t="s">
-        <v>1569</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -16144,16 +16250,16 @@
         <v>26</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
         <v>1254</v>
       </c>
       <c r="D84" t="s">
-        <v>1254</v>
+        <v>499</v>
       </c>
       <c r="E84" t="s">
-        <v>1570</v>
+        <v>1618</v>
       </c>
     </row>
   </sheetData>
@@ -16166,9 +16272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R62" sqref="D3:R62"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -16284,25 +16388,25 @@
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="56" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>702</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="H3" s="56"/>
       <c r="I3" s="56" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="J3" s="56" t="s">
         <v>619</v>
       </c>
       <c r="K3" s="56"/>
       <c r="L3" s="56" t="s">
-        <v>1577</v>
+        <v>1452</v>
       </c>
       <c r="M3" s="56"/>
       <c r="N3" s="56" t="s">
@@ -16316,38 +16420,38 @@
       </c>
       <c r="T3" s="16"/>
       <c r="V3" s="62" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>702</v>
+        <v>1568</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>695</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="N4" s="60" t="s">
         <v>840</v>
@@ -16369,49 +16473,49 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="46" t="s">
         <v>1161</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="46" t="s">
         <v>167</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>1206</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="46" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="46" t="s">
         <v>116</v>
       </c>
       <c r="K5" s="46" t="s">
         <v>1258</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="46" t="s">
         <v>1163</v>
       </c>
       <c r="M5" s="46" t="s">
         <v>1257</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="46" t="s">
         <v>164</v>
       </c>
       <c r="O5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="46" t="s">
         <v>164</v>
       </c>
       <c r="Q5" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="R5" s="46" t="s">
         <v>291</v>
       </c>
       <c r="S5" s="21"/>
@@ -16421,42 +16525,42 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1407</v>
+        <v>1569</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>744</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>1410</v>
+        <v>1385</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1411</v>
+        <v>1386</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1411</v>
+        <v>1386</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1448</v>
+        <v>1419</v>
       </c>
       <c r="R6" s="24" t="s">
         <v>722</v>
@@ -16472,14 +16576,14 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56" t="s">
-        <v>1365</v>
+        <v>1344</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
@@ -16502,19 +16606,19 @@
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>856</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>1365</v>
+        <v>1344</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>1449</v>
+        <v>1420</v>
       </c>
       <c r="K8" s="60"/>
       <c r="L8" s="60" t="s">
@@ -16524,17 +16628,17 @@
         <v>712</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>1451</v>
+        <v>1422</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="P8" s="60"/>
       <c r="Q8" s="60" t="s">
         <v>597</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>1453</v>
+        <v>1424</v>
       </c>
       <c r="S8" s="19"/>
       <c r="V8" s="63"/>
@@ -16544,22 +16648,22 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="46" t="s">
         <v>199</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="46" t="s">
         <v>1177</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="46" t="s">
         <v>185</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="46" t="s">
         <v>1246</v>
       </c>
       <c r="J9" s="46" t="s">
@@ -16571,7 +16675,7 @@
       <c r="L9" s="46" t="s">
         <v>1156</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="46" t="s">
         <v>1199</v>
       </c>
       <c r="N9" s="46" t="s">
@@ -16600,36 +16704,36 @@
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>1412</v>
+        <v>1387</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1413</v>
+        <v>1388</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1450</v>
+        <v>1421</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
         <v>591</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1414</v>
+        <v>1389</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>1452</v>
+        <v>1423</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>730</v>
@@ -16642,12 +16746,12 @@
       <c r="C11" s="33"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56" t="s">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -16664,17 +16768,17 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="60" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>651</v>
@@ -16699,7 +16803,7 @@
       <c r="D13" s="46" t="s">
         <v>1158</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="46" t="s">
         <v>1253</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -16708,7 +16812,7 @@
       <c r="G13" s="46" t="s">
         <v>1238</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="46" t="s">
         <v>105</v>
       </c>
       <c r="I13" s="46" t="s">
@@ -16735,20 +16839,20 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="24" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1415</v>
+        <v>1390</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1416</v>
+        <v>1391</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -16853,88 +16957,88 @@
       <c r="B19" s="12"/>
       <c r="C19" s="34"/>
       <c r="D19" s="56" t="s">
-        <v>1578</v>
+        <v>1453</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>1395</v>
+        <v>1373</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="J19" s="56" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="K19" s="56"/>
       <c r="L19" s="56"/>
       <c r="M19" s="56" t="s">
-        <v>1396</v>
+        <v>1374</v>
       </c>
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
       <c r="P19" s="56" t="s">
-        <v>1398</v>
+        <v>1376</v>
       </c>
       <c r="Q19" s="56" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="R19" s="56" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="V19" s="63"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="60" t="s">
-        <v>1394</v>
+        <v>1453</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>1395</v>
+        <v>1570</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60" t="s">
         <v>543</v>
       </c>
       <c r="M20" s="60" t="s">
-        <v>1396</v>
+        <v>1374</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="O20" s="60" t="s">
         <v>746</v>
       </c>
       <c r="P20" s="60" t="s">
-        <v>1398</v>
+        <v>1376</v>
       </c>
       <c r="Q20" s="60" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="R20" s="60" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="S20" s="19"/>
       <c r="V20" s="63"/>
@@ -16944,25 +17048,25 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="46" t="s">
         <v>1250</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="46" t="s">
         <v>1204</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>1369</v>
-      </c>
-      <c r="G21" s="57" t="s">
+      <c r="F21" s="46" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G21" s="46" t="s">
         <v>1187</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="46" t="s">
         <v>1175</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="46" t="s">
         <v>1197</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="46" t="s">
         <v>1201</v>
       </c>
       <c r="K21" s="46" t="s">
@@ -16971,7 +17075,7 @@
       <c r="L21" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="67" t="s">
         <v>1226</v>
       </c>
       <c r="N21" s="46" t="s">
@@ -16980,13 +17084,13 @@
       <c r="O21" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="57" t="s">
-        <v>1373</v>
-      </c>
-      <c r="Q21" s="57" t="s">
+      <c r="P21" s="46" t="s">
+        <v>1352</v>
+      </c>
+      <c r="Q21" s="46" t="s">
         <v>1244</v>
       </c>
-      <c r="R21" s="57" t="s">
+      <c r="R21" s="46" t="s">
         <v>185</v>
       </c>
       <c r="S21" s="21"/>
@@ -16995,47 +17099,47 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>1417</v>
+        <v>1523</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1418</v>
+        <v>1392</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1419</v>
+        <v>1393</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1420</v>
+        <v>1394</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>1408</v>
+        <v>1571</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>1421</v>
+        <v>1395</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>1422</v>
+        <v>1396</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>1423</v>
+        <v>1397</v>
       </c>
       <c r="Q22" s="24" t="s">
-        <v>1424</v>
+        <v>1398</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -17239,27 +17343,27 @@
         <v>523</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="F31" s="56"/>
       <c r="G31" s="56" t="s">
-        <v>1376</v>
+        <v>1355</v>
       </c>
       <c r="H31" s="56" t="s">
-        <v>1377</v>
+        <v>1356</v>
       </c>
       <c r="I31" s="56"/>
       <c r="J31" s="56" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
       <c r="M31" s="56" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="N31" s="56"/>
       <c r="O31" s="56" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="P31" s="56"/>
       <c r="Q31" s="56" t="s">
@@ -17278,39 +17382,39 @@
         <v>523</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>1454</v>
+        <v>1425</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>1376</v>
+        <v>1355</v>
       </c>
       <c r="H32" s="60" t="s">
-        <v>1377</v>
+        <v>1356</v>
       </c>
       <c r="I32" s="60" t="s">
         <v>607</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="60" t="s">
-        <v>1456</v>
+        <v>1427</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="P32" s="60" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="Q32" s="60" t="s">
-        <v>826</v>
+        <v>1572</v>
       </c>
       <c r="R32" s="60" t="s">
         <v>840</v>
@@ -17327,25 +17431,25 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="46" t="s">
         <v>1220</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="46" t="s">
         <v>1228</v>
       </c>
       <c r="F33" s="46" t="s">
         <v>1180</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="46" t="s">
         <v>1198</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="46" t="s">
         <v>1260</v>
       </c>
       <c r="I33" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="57" t="s">
+      <c r="J33" s="46" t="s">
         <v>1194</v>
       </c>
       <c r="K33" s="46" t="s">
@@ -17354,22 +17458,22 @@
       <c r="L33" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="57" t="s">
+      <c r="M33" s="46" t="s">
         <v>1185</v>
       </c>
       <c r="N33" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="O33" s="57" t="s">
+      <c r="O33" s="46" t="s">
         <v>31</v>
       </c>
       <c r="P33" s="46" t="s">
         <v>1259</v>
       </c>
-      <c r="Q33" s="57" t="s">
+      <c r="Q33" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="R33" s="57" t="s">
+      <c r="R33" s="46" t="s">
         <v>164</v>
       </c>
       <c r="S33" s="21"/>
@@ -17378,45 +17482,45 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="24" t="s">
-        <v>1425</v>
+        <v>1399</v>
       </c>
       <c r="E34" s="24" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>1426</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>1455</v>
-      </c>
       <c r="G34" s="24" t="s">
-        <v>1427</v>
+        <v>1401</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>1428</v>
+        <v>1402</v>
       </c>
       <c r="I34" s="24" t="s">
         <v>1265</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1429</v>
+        <v>1403</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="24" t="s">
-        <v>1457</v>
+        <v>1428</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>1430</v>
+        <v>1404</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>826</v>
+        <v>1572</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>1411</v>
+        <v>1386</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -17428,10 +17532,10 @@
         <v>864</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>1400</v>
+        <v>1378</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>1378</v>
+        <v>1357</v>
       </c>
       <c r="G35" s="56"/>
       <c r="H35" s="56"/>
@@ -17453,10 +17557,10 @@
         <v>864</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>1400</v>
+        <v>1378</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>1378</v>
+        <v>1573</v>
       </c>
       <c r="G36" s="60"/>
       <c r="H36" s="60"/>
@@ -17478,13 +17582,13 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="46" t="s">
         <v>1217</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="46" t="s">
         <v>1162</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="46" t="s">
         <v>1159</v>
       </c>
       <c r="G37" s="46" t="s">
@@ -17496,7 +17600,7 @@
 </v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="J37" s="41" t="str">
         <f>CHAR(10)</f>
@@ -17517,13 +17621,13 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="24" t="s">
-        <v>1431</v>
+        <v>1405</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>1432</v>
+        <v>1406</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1433</v>
+        <v>1574</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -17637,20 +17741,20 @@
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56" t="s">
-        <v>1402</v>
+        <v>1380</v>
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
       <c r="M43" s="56"/>
       <c r="N43" s="56"/>
       <c r="O43" s="56" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="P43" s="56" t="s">
-        <v>1580</v>
+        <v>1455</v>
       </c>
       <c r="Q43" s="56" t="s">
-        <v>1404</v>
+        <v>1382</v>
       </c>
       <c r="R43" s="56"/>
       <c r="V43" s="63"/>
@@ -17658,10 +17762,10 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="60" t="s">
-        <v>1458</v>
+        <v>1429</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>1460</v>
+        <v>1431</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>515</v>
@@ -17676,27 +17780,27 @@
         <v>862</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>1402</v>
+        <v>1380</v>
       </c>
       <c r="K44" s="60"/>
       <c r="L44" s="60" t="s">
         <v>912</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>1464</v>
+        <v>1435</v>
       </c>
       <c r="N44" s="60"/>
       <c r="O44" s="60" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="P44" s="60" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1404</v>
+        <v>1575</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1357</v>
+        <v>1336</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="63"/>
@@ -17724,7 +17828,7 @@
       <c r="I45" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="J45" s="57" t="s">
+      <c r="J45" s="46" t="s">
         <v>1262</v>
       </c>
       <c r="K45" s="46" t="s">
@@ -17739,13 +17843,13 @@
       <c r="N45" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="57" t="s">
+      <c r="O45" s="46" t="s">
         <v>119</v>
       </c>
       <c r="P45" s="46" t="s">
         <v>1200</v>
       </c>
-      <c r="Q45" s="57" t="s">
+      <c r="Q45" s="46" t="s">
         <v>1249</v>
       </c>
       <c r="R45" s="46" t="s">
@@ -17757,10 +17861,10 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="24" t="s">
-        <v>1459</v>
+        <v>1430</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>1461</v>
+        <v>1432</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>515</v>
@@ -17772,30 +17876,30 @@
         <v>738</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1462</v>
+        <v>1433</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1434</v>
+        <v>1407</v>
       </c>
       <c r="K46" s="24"/>
       <c r="L46" s="24" t="s">
-        <v>1463</v>
+        <v>1434</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>1465</v>
+        <v>1436</v>
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="24" t="s">
-        <v>1435</v>
+        <v>1408</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>1467</v>
+        <v>1524</v>
       </c>
       <c r="Q46" s="24" t="s">
-        <v>1437</v>
+        <v>1382</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>1438</v>
+        <v>1410</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -17804,13 +17908,13 @@
       <c r="B47" s="12"/>
       <c r="C47" s="34"/>
       <c r="D47" s="56" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>1406</v>
+        <v>1383</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>1360</v>
+        <v>1339</v>
       </c>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
@@ -17829,13 +17933,13 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="60" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>1468</v>
+        <v>1437</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>1360</v>
+        <v>1339</v>
       </c>
       <c r="G48" s="60"/>
       <c r="H48" s="60"/>
@@ -17857,13 +17961,13 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="46" t="s">
         <v>1236</v>
       </c>
       <c r="E49" s="46" t="s">
         <v>1190</v>
       </c>
-      <c r="F49" s="57" t="s">
+      <c r="F49" s="46" t="s">
         <v>1188</v>
       </c>
       <c r="G49" s="46" t="s">
@@ -17890,13 +17994,13 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="24" t="s">
-        <v>1439</v>
+        <v>1411</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>1469</v>
+        <v>1438</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1440</v>
+        <v>1412</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -18004,18 +18108,18 @@
       <c r="B55" s="12"/>
       <c r="C55" s="34"/>
       <c r="D55" s="56" t="s">
-        <v>1572</v>
+        <v>1447</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56" t="s">
-        <v>1574</v>
+        <v>1449</v>
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="56" t="s">
-        <v>1406</v>
+        <v>1383</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>1379</v>
+        <v>1358</v>
       </c>
       <c r="J55" s="56"/>
       <c r="K55" s="56"/>
@@ -18023,10 +18127,10 @@
       <c r="M55" s="56"/>
       <c r="N55" s="56"/>
       <c r="O55" s="56" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="P55" s="56" t="s">
-        <v>1381</v>
+        <v>1360</v>
       </c>
       <c r="Q55" s="56"/>
       <c r="R55" s="56"/>
@@ -18035,22 +18139,22 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="60" t="s">
-        <v>1470</v>
+        <v>1447</v>
       </c>
       <c r="E56" s="60" t="s">
         <v>525</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>1405</v>
+        <v>1576</v>
       </c>
       <c r="G56" s="60" t="s">
-        <v>1473</v>
+        <v>1440</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>1406</v>
+        <v>1383</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>1379</v>
+        <v>1358</v>
       </c>
       <c r="J56" s="60" t="s">
         <v>651</v>
@@ -18064,10 +18168,10 @@
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="P56" s="60" t="s">
-        <v>1381</v>
+        <v>1360</v>
       </c>
       <c r="Q56" s="60" t="s">
         <v>708</v>
@@ -18089,16 +18193,16 @@
       <c r="E57" s="46" t="s">
         <v>1243</v>
       </c>
-      <c r="F57" s="57" t="s">
+      <c r="F57" s="46" t="s">
         <v>1157</v>
       </c>
       <c r="G57" s="61" t="s">
         <v>1182</v>
       </c>
-      <c r="H57" s="57" t="s">
+      <c r="H57" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="57" t="s">
+      <c r="I57" s="46" t="s">
         <v>1255</v>
       </c>
       <c r="J57" s="46" t="s">
@@ -18110,22 +18214,22 @@
       <c r="L57" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="M57" s="57" t="s">
+      <c r="M57" s="46" t="s">
         <v>199</v>
       </c>
       <c r="N57" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="57" t="s">
+      <c r="O57" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="57" t="s">
+      <c r="P57" s="46" t="s">
         <v>26</v>
       </c>
       <c r="Q57" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="R57" s="57" t="s">
+      <c r="R57" s="46" t="s">
         <v>164</v>
       </c>
       <c r="S57" s="21"/>
@@ -18134,45 +18238,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="24" t="s">
-        <v>1471</v>
+        <v>1525</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>1472</v>
+        <v>1439</v>
       </c>
       <c r="F58" s="24" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G58" s="24" t="s">
         <v>1441</v>
       </c>
-      <c r="G58" s="24" t="s">
-        <v>1474</v>
-      </c>
       <c r="H58" s="24" t="s">
-        <v>1406</v>
+        <v>1383</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>1442</v>
+        <v>1413</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="24" t="s">
-        <v>1475</v>
+        <v>1442</v>
       </c>
       <c r="M58" s="24" t="s">
         <v>567</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
-        <v>1443</v>
+        <v>1414</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>1444</v>
+        <v>1415</v>
       </c>
       <c r="Q58" s="24" t="s">
         <v>708</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1411</v>
+        <v>1386</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -18183,7 +18287,7 @@
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56" t="s">
-        <v>1576</v>
+        <v>1451</v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
@@ -18202,13 +18306,13 @@
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
       <c r="D60" s="60" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>1381</v>
+        <v>1360</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -18230,13 +18334,13 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="57" t="s">
+      <c r="E61" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="57" t="s">
+      <c r="F61" s="46" t="s">
         <v>1253</v>
       </c>
       <c r="G61" s="61" t="s">
@@ -18261,13 +18365,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1443</v>
+        <v>1414</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>1444</v>
+        <v>1415</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1415</v>
+        <v>1390</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -27105,8 +27209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B312FE-EC53-4DD9-A04B-BC6FC3AE5E1F}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:R62"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -27255,7 +27359,7 @@
       </c>
       <c r="T3" s="16"/>
       <c r="V3" s="62" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -27267,7 +27371,7 @@
         <v>386</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>1245</v>
@@ -27360,13 +27464,13 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>1581</v>
+        <v>1456</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1582</v>
+        <v>1457</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1583</v>
+        <v>1458</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>1245</v>
@@ -27379,23 +27483,23 @@
         <v>406</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>1584</v>
+        <v>1459</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>1585</v>
+        <v>1460</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>1586</v>
+        <v>1461</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1587</v>
+        <v>1462</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1587</v>
+        <v>1462</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1588</v>
+        <v>1463</v>
       </c>
       <c r="R6" s="24" t="s">
         <v>62</v>
@@ -27539,36 +27643,36 @@
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>1589</v>
+        <v>1464</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1590</v>
+        <v>1465</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>1591</v>
+        <v>1466</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1592</v>
+        <v>1467</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1593</v>
+        <v>1468</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
         <v>334</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1594</v>
+        <v>1469</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>1595</v>
+        <v>1470</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>1596</v>
+        <v>1471</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1597</v>
+        <v>1472</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>399</v>
@@ -27581,12 +27685,12 @@
       <c r="C11" s="33"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56" t="s">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -27606,14 +27710,14 @@
         <v>1167</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
         <v>1169</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>362</v>
@@ -27657,7 +27761,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>1598</v>
+        <v>1473</v>
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
@@ -27672,20 +27776,20 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="24" t="s">
-        <v>1599</v>
+        <v>1474</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1600</v>
+        <v>1475</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
-        <v>1601</v>
+        <v>1476</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1602</v>
+        <v>1477</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1603</v>
+        <v>1478</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -27745,7 +27849,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>1598</v>
+        <v>1473</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -27794,7 +27898,7 @@
         <v>1205</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="G19" s="56" t="s">
         <v>1184</v>
@@ -27816,10 +27920,10 @@
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
       <c r="P19" s="56" t="s">
-        <v>1397</v>
+        <v>1375</v>
       </c>
       <c r="Q19" s="56" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="R19" s="56" t="s">
         <v>1179</v>
@@ -27829,13 +27933,13 @@
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="60" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="E20" s="60" t="s">
         <v>1205</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="G20" s="60" t="s">
         <v>1184</v>
@@ -27863,10 +27967,10 @@
         <v>407</v>
       </c>
       <c r="P20" s="60" t="s">
-        <v>1397</v>
+        <v>1375</v>
       </c>
       <c r="Q20" s="60" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="R20" s="60" t="s">
         <v>1179</v>
@@ -27930,47 +28034,47 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>1604</v>
+        <v>1479</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1605</v>
+        <v>1480</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1606</v>
+        <v>1481</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1607</v>
+        <v>1482</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>1608</v>
+        <v>1483</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>1256</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>1609</v>
+        <v>1484</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24" t="s">
-        <v>1610</v>
+        <v>1485</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>1611</v>
+        <v>1486</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>1612</v>
+        <v>1487</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>1613</v>
+        <v>1488</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>1614</v>
+        <v>1489</v>
       </c>
       <c r="Q22" s="24" t="s">
-        <v>1615</v>
+        <v>1490</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>1590</v>
+        <v>1465</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -28024,7 +28128,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>1598</v>
+        <v>1473</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
@@ -28116,7 +28220,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>1598</v>
+        <v>1473</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
@@ -28181,7 +28285,7 @@
       </c>
       <c r="I31" s="56"/>
       <c r="J31" s="56" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
@@ -28190,7 +28294,7 @@
       </c>
       <c r="N31" s="56"/>
       <c r="O31" s="56" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="P31" s="56"/>
       <c r="Q31" s="56" t="s">
@@ -28224,7 +28328,7 @@
         <v>59</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="60" t="s">
@@ -28235,7 +28339,7 @@
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="P32" s="60" t="s">
         <v>1170</v>
@@ -28309,36 +28413,36 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="24" t="s">
-        <v>1616</v>
+        <v>1491</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1617</v>
+        <v>1492</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1618</v>
+        <v>1493</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1619</v>
+        <v>1494</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>1620</v>
+        <v>1495</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1621</v>
+        <v>1496</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1622</v>
+        <v>1497</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="24" t="s">
-        <v>1623</v>
+        <v>1498</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>1624</v>
+        <v>1499</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>1170</v>
@@ -28347,7 +28451,7 @@
         <v>443</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>1587</v>
+        <v>1462</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="63"/>
@@ -28422,13 +28526,13 @@
         <v>30</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>1598</v>
+        <v>1473</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>1598</v>
+        <v>1473</v>
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
@@ -28444,13 +28548,13 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="24" t="s">
-        <v>1625</v>
+        <v>1500</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>1626</v>
+        <v>1501</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1627</v>
+        <v>1502</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -28513,7 +28617,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>1598</v>
+        <v>1473</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
@@ -28562,7 +28666,7 @@
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
@@ -28572,10 +28676,10 @@
         <v>1210</v>
       </c>
       <c r="P43" s="56" t="s">
-        <v>1579</v>
+        <v>1454</v>
       </c>
       <c r="Q43" s="56" t="s">
-        <v>1403</v>
+        <v>1381</v>
       </c>
       <c r="R43" s="56"/>
       <c r="V43" s="63"/>
@@ -28601,7 +28705,7 @@
         <v>460</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
       <c r="K44" s="60"/>
       <c r="L44" s="60" t="s">
@@ -28618,10 +28722,10 @@
         <v>1263</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1403</v>
+        <v>1381</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="63"/>
@@ -28682,10 +28786,10 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="24" t="s">
-        <v>1628</v>
+        <v>1503</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>1629</v>
+        <v>1504</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>303</v>
@@ -28697,30 +28801,30 @@
         <v>403</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1630</v>
+        <v>1505</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1631</v>
+        <v>1506</v>
       </c>
       <c r="K46" s="24"/>
       <c r="L46" s="24" t="s">
-        <v>1632</v>
+        <v>1507</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>1633</v>
+        <v>1508</v>
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="24" t="s">
-        <v>1634</v>
+        <v>1509</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>1635</v>
+        <v>1510</v>
       </c>
       <c r="Q46" s="24" t="s">
-        <v>1436</v>
+        <v>1409</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>1636</v>
+        <v>1511</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -28795,7 +28899,7 @@
         <v>30</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>1598</v>
+        <v>1473</v>
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
@@ -28813,13 +28917,13 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="24" t="s">
-        <v>1637</v>
+        <v>1512</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>1638</v>
+        <v>1513</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1639</v>
+        <v>1514</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -28882,7 +28986,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>1598</v>
+        <v>1473</v>
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
@@ -28925,11 +29029,11 @@
       <c r="B55" s="12"/>
       <c r="C55" s="34"/>
       <c r="D55" s="56" t="s">
-        <v>1571</v>
+        <v>1446</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56" t="s">
-        <v>1573</v>
+        <v>1448</v>
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="56" t="s">
@@ -29055,45 +29159,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="24" t="s">
-        <v>1640</v>
+        <v>1515</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>1641</v>
+        <v>1516</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1642</v>
+        <v>1517</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1643</v>
+        <v>1518</v>
       </c>
       <c r="H58" s="24" t="s">
         <v>1239</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>1644</v>
+        <v>1519</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>1603</v>
+        <v>1478</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="24" t="s">
-        <v>1645</v>
+        <v>1520</v>
       </c>
       <c r="M58" s="24" t="s">
         <v>45</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
-        <v>1646</v>
+        <v>1521</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>1647</v>
+        <v>1522</v>
       </c>
       <c r="Q58" s="24" t="s">
         <v>389</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1587</v>
+        <v>1462</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -29104,7 +29208,7 @@
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56" t="s">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
@@ -29129,7 +29233,7 @@
         <v>1254</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -29182,13 +29286,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1646</v>
+        <v>1521</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>1647</v>
+        <v>1522</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1600</v>
+        <v>1475</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -38097,7 +38201,7 @@
         <v>499</v>
       </c>
       <c r="E4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -38114,7 +38218,7 @@
         <v>499</v>
       </c>
       <c r="E5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -38182,7 +38286,7 @@
         <v>499</v>
       </c>
       <c r="E9" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -38216,7 +38320,7 @@
         <v>499</v>
       </c>
       <c r="E11" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -38233,7 +38337,7 @@
         <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>1476</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -38250,7 +38354,7 @@
         <v>499</v>
       </c>
       <c r="E13" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -38278,13 +38382,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="D15" t="s">
         <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -38295,13 +38399,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="D16" t="s">
         <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -38312,7 +38416,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="D17" t="s">
         <v>499</v>
@@ -38335,7 +38439,7 @@
         <v>499</v>
       </c>
       <c r="E18" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -38346,13 +38450,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="D19" t="s">
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -38369,7 +38473,7 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -38386,7 +38490,7 @@
         <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -38403,7 +38507,7 @@
         <v>499</v>
       </c>
       <c r="E22" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -38420,7 +38524,7 @@
         <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -38437,7 +38541,7 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -38448,13 +38552,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1397</v>
+        <v>1375</v>
       </c>
       <c r="D25" t="s">
         <v>499</v>
       </c>
       <c r="E25" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -38465,13 +38569,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="D26" t="s">
         <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -38488,7 +38592,7 @@
         <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -38505,7 +38609,7 @@
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -38539,7 +38643,7 @@
         <v>499</v>
       </c>
       <c r="E30" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -38550,13 +38654,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="D31" t="s">
         <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -38573,7 +38677,7 @@
         <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -38584,13 +38688,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="D33" t="s">
         <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -38607,7 +38711,7 @@
         <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -38641,7 +38745,7 @@
         <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -38669,7 +38773,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
       <c r="D38" t="s">
         <v>499</v>
@@ -38703,7 +38807,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>1403</v>
+        <v>1381</v>
       </c>
       <c r="D40" t="s">
         <v>499</v>
@@ -38726,7 +38830,7 @@
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -38760,7 +38864,7 @@
         <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1344</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -38777,7 +38881,7 @@
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1346</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -38794,7 +38898,7 @@
         <v>499</v>
       </c>
       <c r="E45" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -38811,7 +38915,7 @@
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1477</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -38828,7 +38932,7 @@
         <v>499</v>
       </c>
       <c r="E47" t="s">
-        <v>1478</v>
+        <v>1445</v>
       </c>
     </row>
   </sheetData>
